--- a/Documents/Project Timetable.xlsx
+++ b/Documents/Project Timetable.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UNIVERSITY\YEAR 1\ALL - Python Virtual Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UNIVERSITY\YEAR 1\ALL - Python Virtual Robot\Python-B1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Timetable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,89 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>GUI's</t>
+  </si>
+  <si>
+    <t>Database Control</t>
+  </si>
+  <si>
+    <t>~  Home Interface - Base Design</t>
+  </si>
+  <si>
+    <t>~  Options Interface - Base Design</t>
+  </si>
+  <si>
+    <t>~  Main Interface - Base Design</t>
+  </si>
+  <si>
+    <t>~  Sorting Interface - Base Design</t>
+  </si>
+  <si>
+    <t>Searching / Path Algorithms</t>
+  </si>
+  <si>
+    <t>~  A* Algorithm - Base Concept</t>
+  </si>
+  <si>
+    <t>~  Dijkstra's Algorithm - Base Concept</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>~  Bubble Sort - Base Concept</t>
+  </si>
+  <si>
+    <t>~ Quick Sort - Base Concept</t>
+  </si>
+  <si>
+    <t>~  Create and setup a basic Database</t>
+  </si>
+  <si>
+    <t>~  Set up basic program to insert data into database.</t>
+  </si>
+  <si>
+    <t>~  Intergrate designs to values in database.</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>~  MOB Designs - sprite sheets</t>
+  </si>
+  <si>
+    <t>~  Tower Sprite Designs</t>
+  </si>
+  <si>
+    <t>~  Music and Sound Effects</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>~  Power Up Designs</t>
+  </si>
+  <si>
+    <t>~  Base Classes for MOB / Tower Inheritance.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,13 +137,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -336,12 +543,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">IF(ISBLANK(C2),"",IF(C2&lt;TODAY(),"Overdue","Not Due"))</f>
+        <v/>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D48" ca="1" si="0">IF(ISBLANK(C3),"",IF(C3&lt;TODAY(),"Overdue","Not Due"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>